--- a/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
+++ b/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C048F2-A3BC-4F17-AE8A-869E060EA37B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F95F17F-3FCA-48D0-8C76-D0417250B760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2250" windowWidth="25185" windowHeight="12435"/>
+    <workbookView xWindow="1095" yWindow="1875" windowWidth="23310" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>Num_Of_Greed</t>
   </si>
   <si>
-    <t>Attack_Speed</t>
+    <t>Attack_Order</t>
   </si>
   <si>
     <t>Is_Preemptive</t>
@@ -74,9 +74,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="000000000"/>
-  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,11 +660,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,13 +1022,10 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1114,8 +1105,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
+      <c r="J2">
+        <v>111111111</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1164,8 +1155,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>11001010</v>
+      <c r="J3">
+        <v>121212121</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1214,8 +1205,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <v>11100100</v>
+      <c r="J4">
+        <v>211211211</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1264,8 +1255,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>10101010</v>
+      <c r="J5">
+        <v>112112112</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1314,8 +1305,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>11011011</v>
+      <c r="J6">
+        <v>212122121</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1364,8 +1355,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>100100100</v>
+      <c r="J7">
+        <v>212212121</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1389,6 +1380,5 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
+++ b/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F95F17F-3FCA-48D0-8C76-D0417250B760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B44D1-5025-4C78-AB60-FD0F0EB9F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1875" windowWidth="23310" windowHeight="12435"/>
+    <workbookView xWindow="1095" yWindow="1875" windowWidth="23310" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Num_Of_Attack_Range</t>
   </si>
   <si>
-    <t>Num_Of_Greed</t>
-  </si>
-  <si>
     <t>Attack_Order</t>
   </si>
   <si>
@@ -68,12 +65,16 @@
   </si>
   <si>
     <t>Revivial</t>
+  </si>
+  <si>
+    <t>Num_Of_Grid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1018,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,34 +1048,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1380,5 +1381,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
+++ b/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B44D1-5025-4C78-AB60-FD0F0EB9F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE99F2-5987-4991-BDB7-193B580EAC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1875" windowWidth="23310" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="1425" windowWidth="28815" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Attack_Damage</t>
   </si>
   <si>
-    <t>Num_Of_Attack_Range</t>
-  </si>
-  <si>
     <t>Attack_Order</t>
-  </si>
-  <si>
-    <t>Is_Preemptive</t>
   </si>
   <si>
     <t>Attack_Range</t>
@@ -1020,15 +1014,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,10 +1042,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1071,14 +1068,8 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1101,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>111111111</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>111111111</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1121,14 +1112,8 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1151,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>121212121</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>121212121</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1171,14 +1156,8 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1201,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>211211211</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>211211211</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1221,14 +1200,8 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1251,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>112112112</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>112112112</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1271,14 +1244,8 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1301,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>212122121</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>212122121</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1321,14 +1288,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1351,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>212212121</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>212212121</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1369,12 +1330,6 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
         <v>0</v>
       </c>
     </row>

--- a/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
+++ b/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE99F2-5987-4991-BDB7-193B580EAC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB404A1-3E8E-418E-8A74-A2E86CE1B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1425" windowWidth="28815" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28365" yWindow="885" windowWidth="28815" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Is_Alive</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -37,31 +34,50 @@
     <t>Attack_Damage</t>
   </si>
   <si>
-    <t>Attack_Order</t>
-  </si>
-  <si>
     <t>Attack_Range</t>
   </si>
   <si>
-    <t>Attack_Count</t>
-  </si>
-  <si>
-    <t>Damaged</t>
-  </si>
-  <si>
-    <t>Buffed_Attack</t>
-  </si>
-  <si>
-    <t>Buffed_Damaged</t>
-  </si>
-  <si>
-    <t>Divine_Shield</t>
-  </si>
-  <si>
-    <t>Revivial</t>
-  </si>
-  <si>
-    <t>Num_Of_Grid</t>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밸런스형</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>결속</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무장해제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>처형자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>모아니면도</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1014,70 +1030,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1089,248 +1086,122 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
         <v>111111111</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>200</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>121212121</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>250</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>211211211</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>70</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
         <v>112112112</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>150</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
         <v>212122121</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>175</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
       <c r="F7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
         <v>212212121</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
+++ b/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB404A1-3E8E-418E-8A74-A2E86CE1B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D54AB23-CF18-400C-8E4E-FEF5CB35DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28365" yWindow="885" windowWidth="28815" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21315" yWindow="3930" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G6">
         <v>212122121</v>

--- a/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
+++ b/GridSader_Prototype/Assets/Resources/Character_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D54AB23-CF18-400C-8E4E-FEF5CB35DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00FA8-4AE4-4065-BFEC-2950CDA86891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21315" yWindow="3930" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="3435" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,26 @@
   </si>
   <si>
     <t>모아니면도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>발악</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑탄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상의보호막</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>옹골참</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1030,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1202,6 +1222,121 @@
       </c>
       <c r="G7">
         <v>212212121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>211221212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>221221211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>122221111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>121111122</v>
       </c>
     </row>
   </sheetData>
